--- a/result/NCDC_weather_data/stations_imputed/53593099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/53593099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2147,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2205,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2263,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2437,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2495,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2553,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2611,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2669,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2727,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2785,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2843,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2901,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2959,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3017,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3075,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.06380365413533834</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
